--- a/doc/折线图基本设计20220524.xlsx
+++ b/doc/折线图基本设计20220524.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades-32bit\pleiades\workspace\StockLineChart\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanhao\Documents\GitHub\StockLineChart\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB33CEE4-C2AE-4FC1-B71D-7CF656E6781F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACF7E99-13AC-414B-9120-49C13007DEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="0" windowWidth="25050" windowHeight="14040" firstSheet="1" activeTab="1" xr2:uid="{A8ACD4DB-E8A7-4B20-B8FD-2AC226C6729F}"/>
+    <workbookView xWindow="1740" yWindow="0" windowWidth="25050" windowHeight="14040" activeTab="1" xr2:uid="{A8ACD4DB-E8A7-4B20-B8FD-2AC226C6729F}"/>
   </bookViews>
   <sheets>
     <sheet name="折线图的意义" sheetId="1" r:id="rId1"/>
-    <sheet name="基本设计" sheetId="2" r:id="rId2"/>
-    <sheet name="简单解析" sheetId="3" r:id="rId3"/>
-    <sheet name="输出折点list" sheetId="4" r:id="rId4"/>
-    <sheet name="入力数据" sheetId="6" r:id="rId5"/>
-    <sheet name="计算目标" sheetId="7" r:id="rId6"/>
+    <sheet name="业务背景" sheetId="8" r:id="rId2"/>
+    <sheet name="基本设计" sheetId="2" r:id="rId3"/>
+    <sheet name="简单解析" sheetId="3" r:id="rId4"/>
+    <sheet name="输出折点list" sheetId="4" r:id="rId5"/>
+    <sheet name="入力数据" sheetId="6" r:id="rId6"/>
+    <sheet name="计算目标" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2014,6 +2015,363 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85DE505-483E-7633-2FE5-00C867DCD4EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="295275"/>
+          <a:ext cx="5600000" cy="2723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>103765</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205E379D-E5B2-9B8E-81EE-5C0D3382BE4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="3810000"/>
+          <a:ext cx="8076190" cy="4609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>94659</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{716CB237-293D-250D-097E-B1A2D49088D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="8810625"/>
+          <a:ext cx="4723809" cy="2742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>179474</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>36815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D3FAE4-21F9-0B67-1061-D1E0C00A6259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="12144375"/>
+          <a:ext cx="12009524" cy="10276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>103830</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>84851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA696F9A-0BE3-1B6A-2BF0-327D74380E9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="22860000"/>
+          <a:ext cx="7561905" cy="6990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>16540</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>17798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7AFAE9-A6A3-AF00-D063-F20CFC4C064C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="30241875"/>
+          <a:ext cx="20076190" cy="10019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>65670</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>94583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E76FCE-0F09-D646-98FA-381A9C732221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="40719375"/>
+          <a:ext cx="8038095" cy="5333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>160908</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>209048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E56EB0-EA0A-E117-5A85-3AB6AD9DC630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="46672500"/>
+          <a:ext cx="8133333" cy="4019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -2042,7 +2400,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="计算目标!$C$45:$W$51" spid="_x0000_s3290"/>
+                  <a14:cameraTool cellRange="计算目标!$C$45:$W$51" spid="_x0000_s3293"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2107,7 +2465,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="计算目标!$C$34:$V$42" spid="_x0000_s3291"/>
+                  <a14:cameraTool cellRange="计算目标!$C$34:$V$42" spid="_x0000_s3294"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2172,7 +2530,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="计算目标!$C$25:$V$31" spid="_x0000_s3292"/>
+                  <a14:cameraTool cellRange="计算目标!$C$25:$V$31" spid="_x0000_s3295"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3599,10 +3957,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83A380E-8402-4D7D-875B-119EC4B1BBAF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="AM209" sqref="AM209"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C7A4EC-E28A-43F8-91AC-E2BB7585B039}">
   <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -3798,7 +4172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E4A1B4-A3DA-430B-8539-1C2B89C01E76}">
   <dimension ref="B1:H26"/>
   <sheetViews>
@@ -3949,7 +4323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A42C741-7C51-4C6C-A00B-4B60F1E6F5A5}">
   <dimension ref="B2:BA100"/>
   <sheetViews>
@@ -4747,7 +5121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C386327-19B6-4C4A-9E78-038E6FAE8562}">
   <dimension ref="B2:E5"/>
   <sheetViews>
@@ -4790,7 +5164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C724CD56-1481-461E-AC6F-2B1361FA23A9}">
   <dimension ref="B2:W62"/>
   <sheetViews>
@@ -5707,15 +6081,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010019DF0BCA7D3AEE4898B2BB7617D171BC" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="67121d41d5684431709eb6f1aaae57f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a44a05c9-d8bd-4502-b2ee-a8833c4d0c7a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a3457cf6ad8e68d41bdb170d14525fb" ns3:_="">
     <xsd:import namespace="a44a05c9-d8bd-4502-b2ee-a8833c4d0c7a"/>
@@ -5879,6 +6244,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5886,14 +6260,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99FB97B7-DFC0-4C3F-A6B3-24F2E04520E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D10640-16D2-48D2-B7F2-F9B083AFADF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5907,6 +6273,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99FB97B7-DFC0-4C3F-A6B3-24F2E04520E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
